--- a/test2.xlsx
+++ b/test2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Google</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Test 2: Fetching Webpages on Tor - Random Relay Selection</t>
+  </si>
+  <si>
+    <t>Test 2b: Random Selection based on bandwidth</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>1.6x slower</t>
+  </si>
+  <si>
+    <t>2x slower</t>
   </si>
 </sst>
 </file>
@@ -230,7 +248,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -244,10 +262,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,24 +934,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="139665792"/>
-        <c:axId val="139667328"/>
+        <c:axId val="45923712"/>
+        <c:axId val="45937792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139665792"/>
+        <c:axId val="45923712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139667328"/>
+        <c:crossAx val="45937792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139667328"/>
+        <c:axId val="45937792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +959,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139665792"/>
+        <c:crossAx val="45923712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -929,7 +972,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1255,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1266,21 +1309,21 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -1545,12 +1588,238 @@
         <v>4.4481999999999999</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="14"/>
+    <row r="15" spans="1:12">
+      <c r="B15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7"/>
+      <c r="C17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="23"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5">
+        <v>3.738</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9.8610000000000007</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5">
+        <v>7.8220000000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="E19" s="5">
+        <v>11.407</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8.4740000000000002</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5">
+        <v>7.5789999999999997</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>16.55</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5.7930000000000001</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.4309999999999992</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5">
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8.6530000000000005</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="23"/>
+      <c r="I23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>11.531000000000001</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="23"/>
+      <c r="I24" s="15"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="D25" s="5">
+        <v>9.6780000000000008</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8.3350000000000009</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="23"/>
+      <c r="I25" s="15"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5">
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="D26" s="5">
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10.891</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="23"/>
+      <c r="I26" s="15"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8.6750000000000007</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6.851</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="23"/>
+      <c r="I27" s="15"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="25"/>
+      <c r="I28" s="15"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="I29" s="15"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="I30" s="15"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="I31" s="15"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="I32" s="15"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="9:13">
+      <c r="I33" s="15"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="9:13">
+      <c r="I34" s="15"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="9:13">
+      <c r="I35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="9:13">
+      <c r="I36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E1:L1"/>
+    <mergeCell ref="B15:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="http://www.google.com'"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -152,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,6 +240,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -248,7 +259,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -263,34 +274,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,24 +948,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="45923712"/>
-        <c:axId val="45937792"/>
+        <c:axId val="103039744"/>
+        <c:axId val="103041280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45923712"/>
+        <c:axId val="103039744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45937792"/>
+        <c:crossAx val="103041280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45937792"/>
+        <c:axId val="103041280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +973,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45923712"/>
+        <c:crossAx val="103039744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -972,7 +986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1300,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1314,16 +1328,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -1589,36 +1603,36 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="7"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="5"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:13">
@@ -1632,8 +1646,8 @@
       <c r="E18" s="5">
         <v>9.8610000000000007</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="7"/>
@@ -1646,8 +1660,8 @@
       <c r="E19" s="5">
         <v>11.407</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="7"/>
@@ -1660,8 +1674,8 @@
       <c r="E20" s="5">
         <v>8.4740000000000002</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="23"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="7"/>
@@ -1674,8 +1688,8 @@
       <c r="E21" s="5">
         <v>16.55</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="7"/>
@@ -1688,8 +1702,8 @@
       <c r="E22" s="5">
         <v>8.4309999999999992</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="23"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="7"/>
@@ -1702,10 +1716,10 @@
       <c r="E23" s="5">
         <v>8.6530000000000005</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="23"/>
-      <c r="I23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="7"/>
@@ -1718,9 +1732,9 @@
       <c r="E24" s="5">
         <v>8.7530000000000001</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="23"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="14"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:13">
@@ -1734,9 +1748,9 @@
       <c r="E25" s="5">
         <v>8.3350000000000009</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="23"/>
-      <c r="I25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="14"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13">
@@ -1750,9 +1764,9 @@
       <c r="E26" s="5">
         <v>10.891</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="23"/>
-      <c r="I26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="5"/>
+      <c r="I26" s="14"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="2:13">
@@ -1766,60 +1780,60 @@
       <c r="E27" s="5">
         <v>6.851</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="23"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="5"/>
+      <c r="I27" s="14"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="25"/>
-      <c r="I28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="5"/>
+      <c r="I28" s="14"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="I30" s="15"/>
+      <c r="I30" s="14"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="I31" s="15"/>
+      <c r="I31" s="14"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="I32" s="15"/>
+      <c r="I32" s="14"/>
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="9:13">
-      <c r="I33" s="15"/>
+      <c r="I33" s="14"/>
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="9:13">
-      <c r="I34" s="15"/>
+      <c r="I34" s="14"/>
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="9:13">
-      <c r="I35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="I35" s="14"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="9:13">
-      <c r="I36" s="15"/>
+      <c r="I36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:L1"/>
-    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="B15:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="http://www.google.com'"/>
